--- a/slg-dat/roleSkill.xlsx
+++ b/slg-dat/roleSkill.xlsx
@@ -406,10 +406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>恍惚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,6 +451,10 @@
   </si>
   <si>
     <t>qiang/gong/qi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为一个json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,8 +520,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -565,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="45">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -585,6 +591,9 @@
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -604,6 +613,9 @@
     <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -935,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1204,7 +1216,7 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1224,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:10">
@@ -1244,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -1322,7 +1334,7 @@
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J23" t="s">
         <v>87</v>
@@ -1363,6 +1375,9 @@
       <c r="H26" t="s">
         <v>90</v>
       </c>
+      <c r="I26" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="27" spans="2:10">
       <c r="C27" t="s">
@@ -1398,16 +1413,13 @@
       <c r="I30" t="s">
         <v>95</v>
       </c>
-      <c r="J30" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="31" spans="2:10">
       <c r="I31" t="s">
+        <v>105</v>
+      </c>
+      <c r="J31" t="s">
         <v>106</v>
-      </c>
-      <c r="J31" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="32" spans="2:10">
@@ -1415,57 +1427,60 @@
         <v>21</v>
       </c>
       <c r="H32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11">
       <c r="C33" t="s">
         <v>21</v>
       </c>
       <c r="I33" t="s">
+        <v>97</v>
+      </c>
+      <c r="J33" t="s">
         <v>98</v>
       </c>
-      <c r="J33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10">
+    </row>
+    <row r="34" spans="3:11">
       <c r="C34" t="s">
         <v>21</v>
       </c>
       <c r="I34" t="s">
+        <v>99</v>
+      </c>
+      <c r="J34" t="s">
         <v>100</v>
       </c>
-      <c r="J34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10">
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11">
       <c r="C35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="3:10">
+    <row r="36" spans="3:11">
       <c r="C36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="3:10">
+    <row r="37" spans="3:11">
       <c r="C37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="3:10">
+    <row r="38" spans="3:11">
       <c r="C38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="3:10">
+    <row r="39" spans="3:11">
       <c r="C39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="3:10">
+    <row r="40" spans="3:11">
       <c r="C40" t="s">
         <v>21</v>
       </c>
@@ -1607,7 +1622,7 @@
         <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:8">

--- a/slg-dat/roleSkill.xlsx
+++ b/slg-dat/roleSkill.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="110">
   <si>
     <t>技能名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,6 +455,10 @@
   </si>
   <si>
     <t>为一个json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,7 +952,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1239,7 +1243,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:11">
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -1259,7 +1263,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:11">
       <c r="B18" t="s">
         <v>6</v>
       </c>
@@ -1270,7 +1274,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:11">
       <c r="B19" t="s">
         <v>6</v>
       </c>
@@ -1284,7 +1288,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:11">
       <c r="B20" t="s">
         <v>6</v>
       </c>
@@ -1298,7 +1302,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:11">
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -1309,7 +1313,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:11">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -1322,8 +1326,11 @@
       <c r="J22" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="K22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
       <c r="C23" t="s">
         <v>21</v>
       </c>
@@ -1339,8 +1346,11 @@
       <c r="J23" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="K23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
       <c r="C24" t="s">
         <v>21</v>
       </c>
@@ -1357,7 +1367,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:11">
       <c r="C25" t="s">
         <v>21</v>
       </c>
@@ -1367,8 +1377,11 @@
       <c r="J25" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="K25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
       <c r="C26" t="s">
         <v>21</v>
       </c>
@@ -1379,7 +1392,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:11">
       <c r="C27" t="s">
         <v>21</v>
       </c>
@@ -1390,7 +1403,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:11">
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -1398,7 +1411,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:11">
       <c r="C29" t="s">
         <v>21</v>
       </c>
@@ -1406,7 +1419,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:11">
       <c r="C30" t="s">
         <v>21</v>
       </c>
@@ -1414,7 +1427,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:11">
       <c r="I31" t="s">
         <v>105</v>
       </c>
@@ -1422,7 +1435,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:11">
       <c r="C32" t="s">
         <v>21</v>
       </c>
